--- a/biology/Botanique/Sirex_géant/Sirex_géant.xlsx
+++ b/biology/Botanique/Sirex_géant/Sirex_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sirex_g%C3%A9ant</t>
+          <t>Sirex_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urocerus gigas
 Le Sirex géant, Urocerus gigas, est une espèce d'insectes hyménoptères de la famille des siricidés, dont la larve ronge le bois en creusant des galeries dans diverses espèces d'arbres, ainsi que dans le bois abattu et dans les charpentes. Il est présent dans toute l'Eurasie tempérée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sirex_g%C3%A9ant</t>
+          <t>Sirex_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La larve, de 20 à 30 mm de long environ est dotée de fortes mandibules ; son corps, pratiquement apode, est blanchâtre et mou.
 C'est le plus grand insecte xylophage européen, l'imago mesure de 2 à 4 cm. La femelle est reconnaissable à sa longue et mince tarière ou oviscapte.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sirex_g%C3%A9ant</t>
+          <t>Sirex_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essaimage des adultes a lieu de la mi-mai à octobre.
-Ils volent au soleil, les mâles se rassemblent généralement au sommet des arbres[1].
+Ils volent au soleil, les mâles se rassemblent généralement au sommet des arbres.
 La ponte s'effectue en plusieurs fois et les œufs disposés en groupes sont introduits à 20-30 mm de profondeur dans l'aubier, à l'aide du long oviscapte que les femelles possèdent sous l'abdomen.
 Les larves apparaissent après 3 semaines et s'alimentent dans l'aubier puis dans le bois en creusant une galerie de 10 à 25 cm de longueur et dont le diamètre augmente avec la taille des larves.
 Après plus de 10 mues, elles se nymphosent au fond de la galerie et les adultes émergent après avoir foré un court couloir de sortie au travers du bois.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sirex_g%C3%A9ant</t>
+          <t>Sirex_géant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extraction assez rapide hors forêt des chablis et des arbres dépérissants ;
 après exploitation, réduction au maximum des délais de résidence des grumes en forêt ;
